--- a/email_list.xlsx
+++ b/email_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malli\Desktop\MI_AGENT\Email_Sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A979C90-28AC-4AC0-A827-1C7CB300D5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501FCBF8-3957-4318-9875-CC45975D5C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/bharat-mallipuram-3a494a256/</t>
+  </si>
+  <si>
+    <t>Sampath</t>
+  </si>
+  <si>
+    <t>ec22b1010@iiitdm.ac.in</t>
+  </si>
+  <si>
+    <t>Demo Mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasmine </t>
+  </si>
+  <si>
+    <t>ec22b1003@iiitdm.ac.in</t>
+  </si>
+  <si>
+    <t>Check Mail</t>
   </si>
 </sst>
 </file>
@@ -404,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,11 +496,35 @@
       </c>
       <c r="F3" s="1"/>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A35FB5EF-5BD0-4531-8C7A-AF0078A17710}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{54DA3F56-18CB-4343-92ED-8F84FF30988D}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{74D7AD7A-E3CE-4168-8097-E7C71B3B5BA6}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{F4E5AC21-41B2-4B64-9798-1581BD3BB600}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{ED9C9831-3C48-4D00-ADC3-7F802F5369DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
